--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.250868840596</v>
+        <v>1095.520839222413</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.542561501688547</v>
+        <v>8.951113551215126</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.542561501688547</v>
+        <v>8.926455063461642</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182.1200000000001</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.28956874289246</v>
+        <v>40.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>2.318900601578257</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.85355423476665</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.95111355121513</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.9900000000008</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.9100000000008</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6700000000008</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3650000000008</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>152.5850000000008</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>202.88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.1050000000004</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.47</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>229.3700000000004</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.2350000000004</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.1349999999998</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.8949999999998</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.9649999999998</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.88</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>217.1050000000004</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>220.47</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>229.3700000000004</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>221.2350000000004</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.9900000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.9100000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6700000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5850000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.879999999999995</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.10500000000002</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>21.23500000000001</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2001,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2012,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2023,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2034,12 +2154,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
